--- a/Code/Results/Cases/Case_1_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8015663721055262</v>
+        <v>1.088543089319103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02975315197794259</v>
+        <v>0.1024648592858632</v>
       </c>
       <c r="E2">
-        <v>0.08403168174833375</v>
+        <v>0.1916222410166717</v>
       </c>
       <c r="F2">
-        <v>1.749411143292065</v>
+        <v>2.896413622951727</v>
       </c>
       <c r="G2">
-        <v>1.484807743676939</v>
+        <v>2.126286655168514</v>
       </c>
       <c r="H2">
-        <v>0.9726002076277638</v>
+        <v>1.78044049873975</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1666017047783248</v>
+        <v>0.3213029890215902</v>
       </c>
       <c r="K2">
-        <v>1.076276029329392</v>
+        <v>0.4098702357845241</v>
       </c>
       <c r="L2">
-        <v>0.160414924805707</v>
+        <v>0.1469987310750653</v>
       </c>
       <c r="M2">
-        <v>0.1902991641081542</v>
+        <v>0.2313032576792047</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7207209144903004</v>
+        <v>1.073125921524081</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02907208149398066</v>
+        <v>0.1026034800748175</v>
       </c>
       <c r="E3">
-        <v>0.08465263197112982</v>
+        <v>0.192072795755418</v>
       </c>
       <c r="F3">
-        <v>1.68958152004754</v>
+        <v>2.892956076515731</v>
       </c>
       <c r="G3">
-        <v>1.420490438692497</v>
+        <v>2.118284681597459</v>
       </c>
       <c r="H3">
-        <v>0.9503923179391336</v>
+        <v>1.781827795790633</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1686805939254445</v>
+        <v>0.3220425281297581</v>
       </c>
       <c r="K3">
-        <v>0.9332215431653879</v>
+        <v>0.3713369223548852</v>
       </c>
       <c r="L3">
-        <v>0.1397336910799609</v>
+        <v>0.1424872537828747</v>
       </c>
       <c r="M3">
-        <v>0.1688207889927718</v>
+        <v>0.226977454838142</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6718689407090892</v>
+        <v>1.064172484730136</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02867229314549213</v>
+        <v>0.1027060244492368</v>
       </c>
       <c r="E4">
-        <v>0.08506469331329614</v>
+        <v>0.1923689792755767</v>
       </c>
       <c r="F4">
-        <v>1.655139975133608</v>
+        <v>2.891936610791802</v>
       </c>
       <c r="G4">
-        <v>1.383138683522603</v>
+        <v>2.114281596143769</v>
       </c>
       <c r="H4">
-        <v>0.9379632077298652</v>
+        <v>1.783292469462438</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1700035433396252</v>
+        <v>0.3225206203393374</v>
       </c>
       <c r="K4">
-        <v>0.8458606847850376</v>
+        <v>0.3478457736306666</v>
       </c>
       <c r="L4">
-        <v>0.127155164428423</v>
+        <v>0.139796846245396</v>
       </c>
       <c r="M4">
-        <v>0.1558075100753662</v>
+        <v>0.224436436706732</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6521449218772091</v>
+        <v>1.060653250920211</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02851379081764094</v>
+        <v>0.1027522121569113</v>
       </c>
       <c r="E5">
-        <v>0.08524025118323619</v>
+        <v>0.1924946002801686</v>
       </c>
       <c r="F5">
-        <v>1.641652599253234</v>
+        <v>2.891798760669474</v>
       </c>
       <c r="G5">
-        <v>1.368424921702371</v>
+        <v>2.112879094983754</v>
       </c>
       <c r="H5">
-        <v>0.9331877775413489</v>
+        <v>1.784043536132785</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1705543367263223</v>
+        <v>0.3227214948317338</v>
       </c>
       <c r="K5">
-        <v>0.8103564481895944</v>
+        <v>0.3383155567797473</v>
       </c>
       <c r="L5">
-        <v>0.1220559176735492</v>
+        <v>0.1387205898297807</v>
       </c>
       <c r="M5">
-        <v>0.1505446271011586</v>
+        <v>0.2234299792617271</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6488804434742121</v>
+        <v>1.060076710677777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02848773250766712</v>
+        <v>0.1027601478454763</v>
       </c>
       <c r="E6">
-        <v>0.08526986094778266</v>
+        <v>0.192515757234839</v>
       </c>
       <c r="F6">
-        <v>1.639445301228321</v>
+        <v>2.891792639852014</v>
       </c>
       <c r="G6">
-        <v>1.366011497126408</v>
+        <v>2.112660026763464</v>
       </c>
       <c r="H6">
-        <v>0.9324119175766015</v>
+        <v>1.784177566159784</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1706465007005808</v>
+        <v>0.3227552154679749</v>
       </c>
       <c r="K6">
-        <v>0.8044661384365384</v>
+        <v>0.3367356531494465</v>
       </c>
       <c r="L6">
-        <v>0.1212106996090583</v>
+        <v>0.1385430949077318</v>
       </c>
       <c r="M6">
-        <v>0.1496730479639155</v>
+        <v>0.223264613945549</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6716022109667392</v>
+        <v>1.064124498755461</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02867013791563444</v>
+        <v>0.102706629513829</v>
       </c>
       <c r="E7">
-        <v>0.08506703014760264</v>
+        <v>0.1923706534942498</v>
       </c>
       <c r="F7">
-        <v>1.654955898663843</v>
+        <v>2.891933627604004</v>
       </c>
       <c r="G7">
-        <v>1.382938233325945</v>
+        <v>2.114261755275606</v>
       </c>
       <c r="H7">
-        <v>0.9378976500525908</v>
+        <v>1.783301974146823</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1700109242518431</v>
+        <v>0.3225233049013521</v>
       </c>
       <c r="K7">
-        <v>0.8453815033838907</v>
+        <v>0.347717072895108</v>
       </c>
       <c r="L7">
-        <v>0.1270862909820138</v>
+        <v>0.1397822499628063</v>
       </c>
       <c r="M7">
-        <v>0.1557363752904273</v>
+        <v>0.2244227456031638</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.77351842717718</v>
+        <v>1.083121071950472</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02951436847320821</v>
+        <v>0.1025090480609343</v>
       </c>
       <c r="E8">
-        <v>0.08423932853881233</v>
+        <v>0.1917735425784666</v>
       </c>
       <c r="F8">
-        <v>1.728287730565839</v>
+        <v>2.894992492841496</v>
       </c>
       <c r="G8">
-        <v>1.462168138300839</v>
+        <v>2.123338617177481</v>
       </c>
       <c r="H8">
-        <v>0.9646838717679316</v>
+        <v>1.780791688847813</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1673088460371728</v>
+        <v>0.3215530044268959</v>
       </c>
       <c r="K8">
-        <v>1.026837591032574</v>
+        <v>0.3965491248623039</v>
       </c>
       <c r="L8">
-        <v>0.1532569636450702</v>
+        <v>0.1454266842226914</v>
       </c>
       <c r="M8">
-        <v>0.1828548599068398</v>
+        <v>0.2297879015144524</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.980330478576235</v>
+        <v>1.124426390367091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03132655890745539</v>
+        <v>0.1022591823264207</v>
       </c>
       <c r="E9">
-        <v>0.08286569357449336</v>
+        <v>0.1907572104125612</v>
       </c>
       <c r="F9">
-        <v>1.891700049932538</v>
+        <v>2.909744841936131</v>
       </c>
       <c r="G9">
-        <v>1.635993859129599</v>
+        <v>2.148366739522061</v>
       </c>
       <c r="H9">
-        <v>1.027458493446659</v>
+        <v>1.780729273832378</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1623796198359999</v>
+        <v>0.3198403038209312</v>
       </c>
       <c r="K9">
-        <v>1.38759543662141</v>
+        <v>0.4936394253541039</v>
       </c>
       <c r="L9">
-        <v>0.2057018107862234</v>
+        <v>0.1571248984757574</v>
       </c>
       <c r="M9">
-        <v>0.2376027373282099</v>
+        <v>0.2412182163482797</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.137583371219222</v>
+        <v>1.157228203055183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03277048373998426</v>
+        <v>0.1021585726943606</v>
       </c>
       <c r="E10">
-        <v>0.08201647566790182</v>
+        <v>0.1901041444087994</v>
       </c>
       <c r="F10">
-        <v>2.02582557416109</v>
+        <v>2.925922425286572</v>
       </c>
       <c r="G10">
-        <v>1.777182012406513</v>
+        <v>2.171175471600691</v>
       </c>
       <c r="H10">
-        <v>1.080837669800957</v>
+        <v>1.783644898945766</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1589842069565424</v>
+        <v>0.3186971653873583</v>
       </c>
       <c r="K10">
-        <v>1.657399194785853</v>
+        <v>0.5657830133987432</v>
       </c>
       <c r="L10">
-        <v>0.2451823038534826</v>
+        <v>0.1661010586913818</v>
       </c>
       <c r="M10">
-        <v>0.279060841514962</v>
+        <v>0.2501668398650239</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.210533492135028</v>
+        <v>1.172680562524505</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0334561926339525</v>
+        <v>0.1021306314585431</v>
       </c>
       <c r="E11">
-        <v>0.08166688773374364</v>
+        <v>0.1898272497070552</v>
       </c>
       <c r="F11">
-        <v>2.090410336191027</v>
+        <v>2.934442200399047</v>
       </c>
       <c r="G11">
-        <v>1.844880684573099</v>
+        <v>2.182514938971167</v>
       </c>
       <c r="H11">
-        <v>1.106943791979319</v>
+        <v>1.785614201243874</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1574888932827339</v>
+        <v>0.3182019875749802</v>
       </c>
       <c r="K11">
-        <v>1.781601528526437</v>
+        <v>0.5987797470906742</v>
       </c>
       <c r="L11">
-        <v>0.2634137082345092</v>
+        <v>0.170266985656454</v>
       </c>
       <c r="M11">
-        <v>0.2982571197576931</v>
+        <v>0.2543567347253912</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.23838456165285</v>
+        <v>1.178607925995351</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03372042215377746</v>
+        <v>0.102122598642346</v>
       </c>
       <c r="E12">
-        <v>0.0815399802704313</v>
+        <v>0.1897252899877975</v>
       </c>
       <c r="F12">
-        <v>2.115427012134731</v>
+        <v>2.937835280194491</v>
       </c>
       <c r="G12">
-        <v>1.871064981460506</v>
+        <v>2.186947650202569</v>
       </c>
       <c r="H12">
-        <v>1.11711422965422</v>
+        <v>1.786452336894229</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1569297775335565</v>
+        <v>0.3180180385142037</v>
       </c>
       <c r="K12">
-        <v>1.828883587742041</v>
+        <v>0.6113002603852067</v>
       </c>
       <c r="L12">
-        <v>0.2703623635747618</v>
+        <v>0.1718563392991825</v>
       </c>
       <c r="M12">
-        <v>0.3055807871512854</v>
+        <v>0.2559603887376412</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.232375877964984</v>
+        <v>1.177327993581599</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03366330531670414</v>
+        <v>0.1021242155778452</v>
       </c>
       <c r="E13">
-        <v>0.08156706530287838</v>
+        <v>0.1897471202517629</v>
       </c>
       <c r="F13">
-        <v>2.110013542553986</v>
+        <v>2.937097100980338</v>
       </c>
       <c r="G13">
-        <v>1.865400511782838</v>
+        <v>2.185986815725244</v>
       </c>
       <c r="H13">
-        <v>1.114910808032931</v>
+        <v>1.786267720569583</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1570498754037963</v>
+        <v>0.318057496853295</v>
       </c>
       <c r="K13">
-        <v>1.818688813369931</v>
+        <v>0.6086026198479715</v>
       </c>
       <c r="L13">
-        <v>0.2688637554914806</v>
+        <v>0.1715135195834279</v>
       </c>
       <c r="M13">
-        <v>0.3040009809793034</v>
+        <v>0.2556142572086699</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.212820139698721</v>
+        <v>1.173166691706342</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03347783686702144</v>
+        <v>0.1021299196179264</v>
       </c>
       <c r="E14">
-        <v>0.08165633609213518</v>
+        <v>0.1898188034634885</v>
       </c>
       <c r="F14">
-        <v>2.092456973170769</v>
+        <v>2.934718007986078</v>
       </c>
       <c r="G14">
-        <v>1.8470235975457</v>
+        <v>2.182876840284962</v>
       </c>
       <c r="H14">
-        <v>1.107774680664079</v>
+        <v>1.785681303572915</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1574427513950543</v>
+        <v>0.3181867825925915</v>
       </c>
       <c r="K14">
-        <v>1.785486223010139</v>
+        <v>0.5998093103860072</v>
       </c>
       <c r="L14">
-        <v>0.2639844451406503</v>
+        <v>0.170397506518384</v>
       </c>
       <c r="M14">
-        <v>0.2988585145855112</v>
+        <v>0.2544883275212015</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.200871889338487</v>
+        <v>1.17062764499147</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03336484001172124</v>
+        <v>0.1021337448651778</v>
       </c>
       <c r="E15">
-        <v>0.0817117359881987</v>
+        <v>0.1898630881647057</v>
       </c>
       <c r="F15">
-        <v>2.081777419681885</v>
+        <v>2.933282468884059</v>
       </c>
       <c r="G15">
-        <v>1.83584013937184</v>
+        <v>2.180989957290222</v>
       </c>
       <c r="H15">
-        <v>1.103441359726816</v>
+        <v>1.785334138298367</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1576843287823926</v>
+        <v>0.3182664377421296</v>
       </c>
       <c r="K15">
-        <v>1.765182345048032</v>
+        <v>0.5944264500529073</v>
       </c>
       <c r="L15">
-        <v>0.2610017435207226</v>
+        <v>0.1697154517947581</v>
       </c>
       <c r="M15">
-        <v>0.295715884555932</v>
+        <v>0.2538008782283399</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.132846302599376</v>
+        <v>1.156228997395687</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03272628622878671</v>
+        <v>0.1021607561041442</v>
       </c>
       <c r="E16">
-        <v>0.08204007706478578</v>
+        <v>0.1901226456185059</v>
       </c>
       <c r="F16">
-        <v>2.021680530677841</v>
+        <v>2.925388985748185</v>
       </c>
       <c r="G16">
-        <v>1.772831699358107</v>
+        <v>2.170453812982657</v>
       </c>
       <c r="H16">
-        <v>1.079170138609356</v>
+        <v>1.78352913391268</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1590829241567486</v>
+        <v>0.3187300255982146</v>
       </c>
       <c r="K16">
-        <v>1.649315004894504</v>
+        <v>0.5636301633163043</v>
       </c>
       <c r="L16">
-        <v>0.243996784347857</v>
+        <v>0.1658304618721473</v>
       </c>
       <c r="M16">
-        <v>0.2778135998263025</v>
+        <v>0.2498954090336696</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.091492971211835</v>
+        <v>1.147531508522349</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03234222641830442</v>
+        <v>0.1021818813224371</v>
       </c>
       <c r="E17">
-        <v>0.08225104046420428</v>
+        <v>0.1902870401586627</v>
       </c>
       <c r="F17">
-        <v>1.985759287661637</v>
+        <v>2.920843785512574</v>
       </c>
       <c r="G17">
-        <v>1.73510079489256</v>
+        <v>2.164237137299295</v>
       </c>
       <c r="H17">
-        <v>1.064762930665154</v>
+        <v>1.782586463023677</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1599535652176991</v>
+        <v>0.3190207784247741</v>
       </c>
       <c r="K17">
-        <v>1.578636160172351</v>
+        <v>0.5447831032038266</v>
       </c>
       <c r="L17">
-        <v>0.2336382853813745</v>
+        <v>0.1634682560594314</v>
       </c>
       <c r="M17">
-        <v>0.2669215125258191</v>
+        <v>0.2475299701931633</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.067839330380963</v>
+        <v>1.142578915021858</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03212401402370446</v>
+        <v>0.1021957108266172</v>
       </c>
       <c r="E18">
-        <v>0.08237582505508012</v>
+        <v>0.1903834962881037</v>
       </c>
       <c r="F18">
-        <v>1.965431396417401</v>
+        <v>2.918338742547718</v>
       </c>
       <c r="G18">
-        <v>1.713722547794987</v>
+        <v>2.160752166526265</v>
       </c>
       <c r="H18">
-        <v>1.056646487656337</v>
+        <v>1.782104786213722</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1604589702377663</v>
+        <v>0.3191903504520206</v>
       </c>
       <c r="K18">
-        <v>1.538119171939769</v>
+        <v>0.5339595664618173</v>
       </c>
       <c r="L18">
-        <v>0.2277055334909903</v>
+        <v>0.1621173593421474</v>
       </c>
       <c r="M18">
-        <v>0.260687981163823</v>
+        <v>0.2461806503738906</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.059852564804146</v>
+        <v>1.140910647446105</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03205058096799007</v>
+        <v>0.1022006820775978</v>
       </c>
       <c r="E19">
-        <v>0.08241866096037631</v>
+        <v>0.1904164813975617</v>
       </c>
       <c r="F19">
-        <v>1.958604574500868</v>
+        <v>2.917509341103454</v>
       </c>
       <c r="G19">
-        <v>1.706538387183542</v>
+        <v>2.159587788653909</v>
       </c>
       <c r="H19">
-        <v>1.053926981488985</v>
+        <v>1.781952095217179</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1606308866681969</v>
+        <v>0.3192481665490283</v>
       </c>
       <c r="K19">
-        <v>1.524422994614525</v>
+        <v>0.53029779541518</v>
       </c>
       <c r="L19">
-        <v>0.2257009632068048</v>
+        <v>0.1616613076922704</v>
       </c>
       <c r="M19">
-        <v>0.2585826166216556</v>
+        <v>0.2457257235665438</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.095881312991224</v>
+        <v>1.148452202165856</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0323828291212962</v>
+        <v>0.1021794588675995</v>
       </c>
       <c r="E20">
-        <v>0.0822282252788944</v>
+        <v>0.1902693434241338</v>
       </c>
       <c r="F20">
-        <v>1.989548371512811</v>
+        <v>2.921316324708897</v>
       </c>
       <c r="G20">
-        <v>1.73908348362994</v>
+        <v>2.16488952534371</v>
       </c>
       <c r="H20">
-        <v>1.066278831399956</v>
+        <v>1.782680548484194</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1598604039775156</v>
+        <v>0.3189895853040148</v>
       </c>
       <c r="K20">
-        <v>1.586145741457614</v>
+        <v>0.5467876687808371</v>
       </c>
       <c r="L20">
-        <v>0.2347383187804013</v>
+        <v>0.1637189120759075</v>
       </c>
       <c r="M20">
-        <v>0.2680777114180586</v>
+        <v>0.2477806148813499</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.218557795836517</v>
+        <v>1.174386910603943</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03353218593808194</v>
+        <v>0.1021281751758423</v>
       </c>
       <c r="E21">
-        <v>0.08162996489102525</v>
+        <v>0.1897976698855608</v>
       </c>
       <c r="F21">
-        <v>2.09759817967678</v>
+        <v>2.935412278091206</v>
       </c>
       <c r="G21">
-        <v>1.852406049913327</v>
+        <v>2.18378655013359</v>
       </c>
       <c r="H21">
-        <v>1.109862821704155</v>
+        <v>1.785851041083276</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1573271604028434</v>
+        <v>0.3181487115746298</v>
       </c>
       <c r="K21">
-        <v>1.795231539008427</v>
+        <v>0.6023914321947927</v>
       </c>
       <c r="L21">
-        <v>0.26541635191181</v>
+        <v>0.1707249867421439</v>
       </c>
       <c r="M21">
-        <v>0.3003674531628491</v>
+        <v>0.2548185789011512</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.300065930467326</v>
+        <v>1.19177889709178</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03431020564145371</v>
+        <v>0.1021095025341729</v>
       </c>
       <c r="E22">
-        <v>0.08127097913151804</v>
+        <v>0.1895062701212513</v>
       </c>
       <c r="F22">
-        <v>2.171502601660265</v>
+        <v>2.945597162603917</v>
       </c>
       <c r="G22">
-        <v>1.929690662181144</v>
+        <v>2.196945363352029</v>
       </c>
       <c r="H22">
-        <v>1.140018285122721</v>
+        <v>1.78846171548696</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1557131058030281</v>
+        <v>0.3176199221571649</v>
       </c>
       <c r="K22">
-        <v>1.933354848994497</v>
+        <v>0.6388794397707898</v>
       </c>
       <c r="L22">
-        <v>0.2857305194405058</v>
+        <v>0.1753726509991651</v>
       </c>
       <c r="M22">
-        <v>0.3217912426176355</v>
+        <v>0.2595175245779657</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.256433527726557</v>
+        <v>1.18245614630888</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03389235377862931</v>
+        <v>0.1021181152919439</v>
       </c>
       <c r="E23">
-        <v>0.08145957788037972</v>
+        <v>0.1896602552765083</v>
       </c>
       <c r="F23">
-        <v>2.13174119471941</v>
+        <v>2.940072344439329</v>
       </c>
       <c r="G23">
-        <v>1.888130249589693</v>
+        <v>2.189848235680643</v>
       </c>
       <c r="H23">
-        <v>1.123762947876543</v>
+        <v>1.787019087695768</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1565707382816219</v>
+        <v>0.3179002492214553</v>
       </c>
       <c r="K23">
-        <v>1.859487405433327</v>
+        <v>0.6193916727218038</v>
       </c>
       <c r="L23">
-        <v>0.2748622361705628</v>
+        <v>0.1728858351330729</v>
       </c>
       <c r="M23">
-        <v>0.3103255009831187</v>
+        <v>0.257000561430722</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.093896968683765</v>
+        <v>1.148035807930967</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0323644646067649</v>
+        <v>0.1021805488121643</v>
       </c>
       <c r="E24">
-        <v>0.08223852914005647</v>
+        <v>0.1902773380639227</v>
       </c>
       <c r="F24">
-        <v>1.987834321879873</v>
+        <v>2.921102353143183</v>
       </c>
       <c r="G24">
-        <v>1.737281936441491</v>
+        <v>2.164594303235134</v>
       </c>
       <c r="H24">
-        <v>1.065592975882282</v>
+        <v>1.782637824671895</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1599025070335318</v>
+        <v>0.3190036801932274</v>
       </c>
       <c r="K24">
-        <v>1.582750297496943</v>
+        <v>0.5458813676330294</v>
       </c>
       <c r="L24">
-        <v>0.2342409240682883</v>
+        <v>0.1636055681618274</v>
       </c>
       <c r="M24">
-        <v>0.2675549056556648</v>
+        <v>0.2476672653849761</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9235323286190749</v>
+        <v>1.112819968212051</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03081790768306902</v>
+        <v>0.1023121427905274</v>
       </c>
       <c r="E25">
-        <v>0.08320982369171315</v>
+        <v>0.1910156680558797</v>
       </c>
       <c r="F25">
-        <v>1.845185109112904</v>
+        <v>2.904816527094226</v>
       </c>
       <c r="G25">
-        <v>1.586774048689421</v>
+        <v>2.140820677271932</v>
       </c>
       <c r="H25">
-        <v>1.00927960450386</v>
+        <v>1.780225989753859</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1636734754154299</v>
+        <v>0.3202833586094624</v>
       </c>
       <c r="K25">
-        <v>1.289301307912666</v>
+        <v>0.4672314656159244</v>
       </c>
       <c r="L25">
-        <v>0.1913677730904055</v>
+        <v>0.1538930682806381</v>
       </c>
       <c r="M25">
-        <v>0.2225965892065815</v>
+        <v>0.2380290395334228</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.088543089319103</v>
+        <v>0.8015663721055262</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1024648592858632</v>
+        <v>0.02975315197786443</v>
       </c>
       <c r="E2">
-        <v>0.1916222410166717</v>
+        <v>0.08403168174835196</v>
       </c>
       <c r="F2">
-        <v>2.896413622951727</v>
+        <v>1.749411143292079</v>
       </c>
       <c r="G2">
-        <v>2.126286655168514</v>
+        <v>1.484807743676853</v>
       </c>
       <c r="H2">
-        <v>1.78044049873975</v>
+        <v>0.9726002076277922</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3213029890215902</v>
+        <v>0.166601704778284</v>
       </c>
       <c r="K2">
-        <v>0.4098702357845241</v>
+        <v>1.076276029329421</v>
       </c>
       <c r="L2">
-        <v>0.1469987310750653</v>
+        <v>0.1604149248058206</v>
       </c>
       <c r="M2">
-        <v>0.2313032576792047</v>
+        <v>0.1902991641081577</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.073125921524081</v>
+        <v>0.7207209144903288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1026034800748175</v>
+        <v>0.02907208149391849</v>
       </c>
       <c r="E3">
-        <v>0.192072795755418</v>
+        <v>0.08465263197113382</v>
       </c>
       <c r="F3">
-        <v>2.892956076515731</v>
+        <v>1.68958152004754</v>
       </c>
       <c r="G3">
-        <v>2.118284681597459</v>
+        <v>1.420490438692482</v>
       </c>
       <c r="H3">
-        <v>1.781827795790633</v>
+        <v>0.9503923179390199</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3220425281297581</v>
+        <v>0.1686805939254759</v>
       </c>
       <c r="K3">
-        <v>0.3713369223548852</v>
+        <v>0.9332215431654447</v>
       </c>
       <c r="L3">
-        <v>0.1424872537828747</v>
+        <v>0.1397336910799751</v>
       </c>
       <c r="M3">
-        <v>0.226977454838142</v>
+        <v>0.1688207889927789</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.064172484730136</v>
+        <v>0.6718689407091176</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1027060244492368</v>
+        <v>0.02867229314548325</v>
       </c>
       <c r="E4">
-        <v>0.1923689792755767</v>
+        <v>0.08506469331332323</v>
       </c>
       <c r="F4">
-        <v>2.891936610791802</v>
+        <v>1.655139975133622</v>
       </c>
       <c r="G4">
-        <v>2.114281596143769</v>
+        <v>1.383138683522603</v>
       </c>
       <c r="H4">
-        <v>1.783292469462438</v>
+        <v>0.9379632077298652</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3225206203393374</v>
+        <v>0.1700035433395521</v>
       </c>
       <c r="K4">
-        <v>0.3478457736306666</v>
+        <v>0.8458606847851513</v>
       </c>
       <c r="L4">
-        <v>0.139796846245396</v>
+        <v>0.1271551644284656</v>
       </c>
       <c r="M4">
-        <v>0.224436436706732</v>
+        <v>0.1558075100753875</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.060653250920211</v>
+        <v>0.6521449218770385</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1027522121569113</v>
+        <v>0.02851379081756811</v>
       </c>
       <c r="E5">
-        <v>0.1924946002801686</v>
+        <v>0.08524025118327083</v>
       </c>
       <c r="F5">
-        <v>2.891798760669474</v>
+        <v>1.64165259925322</v>
       </c>
       <c r="G5">
-        <v>2.112879094983754</v>
+        <v>1.368424921702299</v>
       </c>
       <c r="H5">
-        <v>1.784043536132785</v>
+        <v>0.9331877775413489</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3227214948317338</v>
+        <v>0.1705543367262923</v>
       </c>
       <c r="K5">
-        <v>0.3383155567797473</v>
+        <v>0.810356448189566</v>
       </c>
       <c r="L5">
-        <v>0.1387205898297807</v>
+        <v>0.1220559176735918</v>
       </c>
       <c r="M5">
-        <v>0.2234299792617271</v>
+        <v>0.1505446271011834</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.060076710677777</v>
+        <v>0.6488804434741553</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1027601478454763</v>
+        <v>0.02848773250768133</v>
       </c>
       <c r="E6">
-        <v>0.192515757234839</v>
+        <v>0.08526986094780442</v>
       </c>
       <c r="F6">
-        <v>2.891792639852014</v>
+        <v>1.639445301228335</v>
       </c>
       <c r="G6">
-        <v>2.112660026763464</v>
+        <v>1.366011497126394</v>
       </c>
       <c r="H6">
-        <v>1.784177566159784</v>
+        <v>0.932411917576573</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3227552154679749</v>
+        <v>0.1706465007005085</v>
       </c>
       <c r="K6">
-        <v>0.3367356531494465</v>
+        <v>0.8044661384365952</v>
       </c>
       <c r="L6">
-        <v>0.1385430949077318</v>
+        <v>0.1212106996091222</v>
       </c>
       <c r="M6">
-        <v>0.223264613945549</v>
+        <v>0.1496730479639119</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.064124498755461</v>
+        <v>0.6716022109665403</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.102706629513829</v>
+        <v>0.02867013791562201</v>
       </c>
       <c r="E7">
-        <v>0.1923706534942498</v>
+        <v>0.08506703014761108</v>
       </c>
       <c r="F7">
-        <v>2.891933627604004</v>
+        <v>1.654955898663843</v>
       </c>
       <c r="G7">
-        <v>2.114261755275606</v>
+        <v>1.382938233325959</v>
       </c>
       <c r="H7">
-        <v>1.783301974146823</v>
+        <v>0.9378976500525908</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3225233049013521</v>
+        <v>0.1700109242518761</v>
       </c>
       <c r="K7">
-        <v>0.347717072895108</v>
+        <v>0.8453815033840044</v>
       </c>
       <c r="L7">
-        <v>0.1397822499628063</v>
+        <v>0.127086290982021</v>
       </c>
       <c r="M7">
-        <v>0.2244227456031638</v>
+        <v>0.1557363752904237</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.083121071950472</v>
+        <v>0.7735184271772368</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1025090480609343</v>
+        <v>0.0295143684731265</v>
       </c>
       <c r="E8">
-        <v>0.1917735425784666</v>
+        <v>0.08423932853879368</v>
       </c>
       <c r="F8">
-        <v>2.894992492841496</v>
+        <v>1.728287730565825</v>
       </c>
       <c r="G8">
-        <v>2.123338617177481</v>
+        <v>1.462168138300797</v>
       </c>
       <c r="H8">
-        <v>1.780791688847813</v>
+        <v>0.9646838717680595</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3215530044268959</v>
+        <v>0.167308846037165</v>
       </c>
       <c r="K8">
-        <v>0.3965491248623039</v>
+        <v>1.026837591032518</v>
       </c>
       <c r="L8">
-        <v>0.1454266842226914</v>
+        <v>0.1532569636450347</v>
       </c>
       <c r="M8">
-        <v>0.2297879015144524</v>
+        <v>0.1828548599068256</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.124426390367091</v>
+        <v>0.980330478576235</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1022591823264207</v>
+        <v>0.03132655890753</v>
       </c>
       <c r="E9">
-        <v>0.1907572104125612</v>
+        <v>0.08286569357446583</v>
       </c>
       <c r="F9">
-        <v>2.909744841936131</v>
+        <v>1.891700049932538</v>
       </c>
       <c r="G9">
-        <v>2.148366739522061</v>
+        <v>1.635993859129655</v>
       </c>
       <c r="H9">
-        <v>1.780729273832378</v>
+        <v>1.027458493446659</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3198403038209312</v>
+        <v>0.1623796198361358</v>
       </c>
       <c r="K9">
-        <v>0.4936394253541039</v>
+        <v>1.387595436621524</v>
       </c>
       <c r="L9">
-        <v>0.1571248984757574</v>
+        <v>0.2057018107862234</v>
       </c>
       <c r="M9">
-        <v>0.2412182163482797</v>
+        <v>0.2376027373282064</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.157228203055183</v>
+        <v>1.137583371219193</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1021585726943606</v>
+        <v>0.03277048373999492</v>
       </c>
       <c r="E10">
-        <v>0.1901041444087994</v>
+        <v>0.08201647566791204</v>
       </c>
       <c r="F10">
-        <v>2.925922425286572</v>
+        <v>2.025825574161104</v>
       </c>
       <c r="G10">
-        <v>2.171175471600691</v>
+        <v>1.77718201240657</v>
       </c>
       <c r="H10">
-        <v>1.783644898945766</v>
+        <v>1.080837669800985</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3186971653873583</v>
+        <v>0.1589842069565224</v>
       </c>
       <c r="K10">
-        <v>0.5657830133987432</v>
+        <v>1.657399194785825</v>
       </c>
       <c r="L10">
-        <v>0.1661010586913818</v>
+        <v>0.24518230385344</v>
       </c>
       <c r="M10">
-        <v>0.2501668398650239</v>
+        <v>0.279060841514962</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.172680562524505</v>
+        <v>1.210533492135056</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1021306314585431</v>
+        <v>0.03345619263414434</v>
       </c>
       <c r="E11">
-        <v>0.1898272497070552</v>
+        <v>0.0816668877337432</v>
       </c>
       <c r="F11">
-        <v>2.934442200399047</v>
+        <v>2.090410336190985</v>
       </c>
       <c r="G11">
-        <v>2.182514938971167</v>
+        <v>1.844880684573127</v>
       </c>
       <c r="H11">
-        <v>1.785614201243874</v>
+        <v>1.106943791979205</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3182019875749802</v>
+        <v>0.1574888932827396</v>
       </c>
       <c r="K11">
-        <v>0.5987797470906742</v>
+        <v>1.781601528526494</v>
       </c>
       <c r="L11">
-        <v>0.170266985656454</v>
+        <v>0.2634137082345234</v>
       </c>
       <c r="M11">
-        <v>0.2543567347253912</v>
+        <v>0.298257119757686</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.178607925995351</v>
+        <v>1.238384561652907</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.102122598642346</v>
+        <v>0.03372042215378102</v>
       </c>
       <c r="E12">
-        <v>0.1897252899877975</v>
+        <v>0.08153998027044995</v>
       </c>
       <c r="F12">
-        <v>2.937835280194491</v>
+        <v>2.115427012134731</v>
       </c>
       <c r="G12">
-        <v>2.186947650202569</v>
+        <v>1.871064981460449</v>
       </c>
       <c r="H12">
-        <v>1.786452336894229</v>
+        <v>1.117114229654192</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3180180385142037</v>
+        <v>0.1569297775335672</v>
       </c>
       <c r="K12">
-        <v>0.6113002603852067</v>
+        <v>1.828883587742126</v>
       </c>
       <c r="L12">
-        <v>0.1718563392991825</v>
+        <v>0.2703623635746482</v>
       </c>
       <c r="M12">
-        <v>0.2559603887376412</v>
+        <v>0.3055807871512926</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.177327993581599</v>
+        <v>1.232375877964955</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1021242155778452</v>
+        <v>0.03366330531691375</v>
       </c>
       <c r="E13">
-        <v>0.1897471202517629</v>
+        <v>0.08156706530287572</v>
       </c>
       <c r="F13">
-        <v>2.937097100980338</v>
+        <v>2.110013542553972</v>
       </c>
       <c r="G13">
-        <v>2.185986815725244</v>
+        <v>1.865400511782809</v>
       </c>
       <c r="H13">
-        <v>1.786267720569583</v>
+        <v>1.114910808032931</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.318057496853295</v>
+        <v>0.1570498754037111</v>
       </c>
       <c r="K13">
-        <v>0.6086026198479715</v>
+        <v>1.81868881336996</v>
       </c>
       <c r="L13">
-        <v>0.1715135195834279</v>
+        <v>0.2688637554913953</v>
       </c>
       <c r="M13">
-        <v>0.2556142572086699</v>
+        <v>0.3040009809792892</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.173166691706342</v>
+        <v>1.212820139698806</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1021299196179264</v>
+        <v>0.03347783686702144</v>
       </c>
       <c r="E14">
-        <v>0.1898188034634885</v>
+        <v>0.08165633609215917</v>
       </c>
       <c r="F14">
-        <v>2.934718007986078</v>
+        <v>2.092456973170741</v>
       </c>
       <c r="G14">
-        <v>2.182876840284962</v>
+        <v>1.8470235975457</v>
       </c>
       <c r="H14">
-        <v>1.785681303572915</v>
+        <v>1.10777468066405</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3181867825925915</v>
+        <v>0.1574427513951777</v>
       </c>
       <c r="K14">
-        <v>0.5998093103860072</v>
+        <v>1.785486223010196</v>
       </c>
       <c r="L14">
-        <v>0.170397506518384</v>
+        <v>0.2639844451406645</v>
       </c>
       <c r="M14">
-        <v>0.2544883275212015</v>
+        <v>0.2988585145855254</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.17062764499147</v>
+        <v>1.20087188933843</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1021337448651778</v>
+        <v>0.03336484001173545</v>
       </c>
       <c r="E15">
-        <v>0.1898630881647057</v>
+        <v>0.08171173598823067</v>
       </c>
       <c r="F15">
-        <v>2.933282468884059</v>
+        <v>2.081777419681885</v>
       </c>
       <c r="G15">
-        <v>2.180989957290222</v>
+        <v>1.835840139371811</v>
       </c>
       <c r="H15">
-        <v>1.785334138298367</v>
+        <v>1.103441359726844</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3182664377421296</v>
+        <v>0.1576843287823149</v>
       </c>
       <c r="K15">
-        <v>0.5944264500529073</v>
+        <v>1.765182345047947</v>
       </c>
       <c r="L15">
-        <v>0.1697154517947581</v>
+        <v>0.2610017435206942</v>
       </c>
       <c r="M15">
-        <v>0.2538008782283399</v>
+        <v>0.295715884555932</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.156228997395687</v>
+        <v>1.132846302599404</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1021607561041442</v>
+        <v>0.03272628622866236</v>
       </c>
       <c r="E16">
-        <v>0.1901226456185059</v>
+        <v>0.08204007706477867</v>
       </c>
       <c r="F16">
-        <v>2.925388985748185</v>
+        <v>2.02168053067787</v>
       </c>
       <c r="G16">
-        <v>2.170453812982657</v>
+        <v>1.772831699358136</v>
       </c>
       <c r="H16">
-        <v>1.78352913391268</v>
+        <v>1.079170138609356</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3187300255982146</v>
+        <v>0.1590829241567846</v>
       </c>
       <c r="K16">
-        <v>0.5636301633163043</v>
+        <v>1.649315004894618</v>
       </c>
       <c r="L16">
-        <v>0.1658304618721473</v>
+        <v>0.2439967843479138</v>
       </c>
       <c r="M16">
-        <v>0.2498954090336696</v>
+        <v>0.2778135998262883</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.147531508522349</v>
+        <v>1.091492971211807</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1021818813224371</v>
+        <v>0.03234222641830087</v>
       </c>
       <c r="E17">
-        <v>0.1902870401586627</v>
+        <v>0.08225104046418386</v>
       </c>
       <c r="F17">
-        <v>2.920843785512574</v>
+        <v>1.985759287661637</v>
       </c>
       <c r="G17">
-        <v>2.164237137299295</v>
+        <v>1.735100794892503</v>
       </c>
       <c r="H17">
-        <v>1.782586463023677</v>
+        <v>1.064762930665154</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3190207784247741</v>
+        <v>0.159953565217763</v>
       </c>
       <c r="K17">
-        <v>0.5447831032038266</v>
+        <v>1.578636160172294</v>
       </c>
       <c r="L17">
-        <v>0.1634682560594314</v>
+        <v>0.2336382853813603</v>
       </c>
       <c r="M17">
-        <v>0.2475299701931633</v>
+        <v>0.2669215125258191</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.142578915021858</v>
+        <v>1.067839330380963</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1021957108266172</v>
+        <v>0.03212401402382525</v>
       </c>
       <c r="E18">
-        <v>0.1903834962881037</v>
+        <v>0.08237582505508545</v>
       </c>
       <c r="F18">
-        <v>2.918338742547718</v>
+        <v>1.965431396417401</v>
       </c>
       <c r="G18">
-        <v>2.160752166526265</v>
+        <v>1.713722547795015</v>
       </c>
       <c r="H18">
-        <v>1.782104786213722</v>
+        <v>1.056646487656224</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3191903504520206</v>
+        <v>0.160458970237721</v>
       </c>
       <c r="K18">
-        <v>0.5339595664618173</v>
+        <v>1.538119171939712</v>
       </c>
       <c r="L18">
-        <v>0.1621173593421474</v>
+        <v>0.2277055334910472</v>
       </c>
       <c r="M18">
-        <v>0.2461806503738906</v>
+        <v>0.2606879811638301</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140910647446105</v>
+        <v>1.059852564804061</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1022006820775978</v>
+        <v>0.03205058096789415</v>
       </c>
       <c r="E19">
-        <v>0.1904164813975617</v>
+        <v>0.0824186609603359</v>
       </c>
       <c r="F19">
-        <v>2.917509341103454</v>
+        <v>1.958604574500868</v>
       </c>
       <c r="G19">
-        <v>2.159587788653909</v>
+        <v>1.706538387183684</v>
       </c>
       <c r="H19">
-        <v>1.781952095217179</v>
+        <v>1.053926981488985</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3192481665490283</v>
+        <v>0.1606308866681889</v>
       </c>
       <c r="K19">
-        <v>0.53029779541518</v>
+        <v>1.52442299461444</v>
       </c>
       <c r="L19">
-        <v>0.1616613076922704</v>
+        <v>0.2257009632068048</v>
       </c>
       <c r="M19">
-        <v>0.2457257235665438</v>
+        <v>0.2585826166216521</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.148452202165856</v>
+        <v>1.095881312991224</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1021794588675995</v>
+        <v>0.03238282912148094</v>
       </c>
       <c r="E20">
-        <v>0.1902693434241338</v>
+        <v>0.08222822527889173</v>
       </c>
       <c r="F20">
-        <v>2.921316324708897</v>
+        <v>1.989548371512811</v>
       </c>
       <c r="G20">
-        <v>2.16488952534371</v>
+        <v>1.73908348362977</v>
       </c>
       <c r="H20">
-        <v>1.782680548484194</v>
+        <v>1.066278831399984</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3189895853040148</v>
+        <v>0.1598604039774045</v>
       </c>
       <c r="K20">
-        <v>0.5467876687808371</v>
+        <v>1.586145741457585</v>
       </c>
       <c r="L20">
-        <v>0.1637189120759075</v>
+        <v>0.2347383187803729</v>
       </c>
       <c r="M20">
-        <v>0.2477806148813499</v>
+        <v>0.2680777114180586</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.174386910603943</v>
+        <v>1.218557795836489</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1021281751758423</v>
+        <v>0.03353218593796825</v>
       </c>
       <c r="E21">
-        <v>0.1897976698855608</v>
+        <v>0.08162996489102303</v>
       </c>
       <c r="F21">
-        <v>2.935412278091206</v>
+        <v>2.09759817967678</v>
       </c>
       <c r="G21">
-        <v>2.18378655013359</v>
+        <v>1.852406049913299</v>
       </c>
       <c r="H21">
-        <v>1.785851041083276</v>
+        <v>1.109862821704041</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3181487115746298</v>
+        <v>0.1573271604028363</v>
       </c>
       <c r="K21">
-        <v>0.6023914321947927</v>
+        <v>1.795231539008341</v>
       </c>
       <c r="L21">
-        <v>0.1707249867421439</v>
+        <v>0.2654163519118811</v>
       </c>
       <c r="M21">
-        <v>0.2548185789011512</v>
+        <v>0.3003674531628562</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.19177889709178</v>
+        <v>1.300065930467213</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1021095025341729</v>
+        <v>0.03431020564147147</v>
       </c>
       <c r="E22">
-        <v>0.1895062701212513</v>
+        <v>0.08127097913151982</v>
       </c>
       <c r="F22">
-        <v>2.945597162603917</v>
+        <v>2.171502601660251</v>
       </c>
       <c r="G22">
-        <v>2.196945363352029</v>
+        <v>1.929690662181201</v>
       </c>
       <c r="H22">
-        <v>1.78846171548696</v>
+        <v>1.140018285122721</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3176199221571649</v>
+        <v>0.1557131058030885</v>
       </c>
       <c r="K22">
-        <v>0.6388794397707898</v>
+        <v>1.933354848994611</v>
       </c>
       <c r="L22">
-        <v>0.1753726509991651</v>
+        <v>0.28573051944052</v>
       </c>
       <c r="M22">
-        <v>0.2595175245779657</v>
+        <v>0.3217912426176568</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.18245614630888</v>
+        <v>1.256433527726585</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1021181152919439</v>
+        <v>0.03389235377875011</v>
       </c>
       <c r="E23">
-        <v>0.1896602552765083</v>
+        <v>0.08145957788039748</v>
       </c>
       <c r="F23">
-        <v>2.940072344439329</v>
+        <v>2.131741194719424</v>
       </c>
       <c r="G23">
-        <v>2.189848235680643</v>
+        <v>1.88813024958975</v>
       </c>
       <c r="H23">
-        <v>1.787019087695768</v>
+        <v>1.123762947876543</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3179002492214553</v>
+        <v>0.1565707382815686</v>
       </c>
       <c r="K23">
-        <v>0.6193916727218038</v>
+        <v>1.859487405433214</v>
       </c>
       <c r="L23">
-        <v>0.1728858351330729</v>
+        <v>0.2748622361705628</v>
       </c>
       <c r="M23">
-        <v>0.257000561430722</v>
+        <v>0.31032550098314</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.148035807930967</v>
+        <v>1.093896968683822</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1021805488121643</v>
+        <v>0.03236446460675779</v>
       </c>
       <c r="E24">
-        <v>0.1902773380639227</v>
+        <v>0.08223852914007024</v>
       </c>
       <c r="F24">
-        <v>2.921102353143183</v>
+        <v>1.987834321879859</v>
       </c>
       <c r="G24">
-        <v>2.164594303235134</v>
+        <v>1.737281936441491</v>
       </c>
       <c r="H24">
-        <v>1.782637824671895</v>
+        <v>1.065592975882396</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3190036801932274</v>
+        <v>0.1599025070335709</v>
       </c>
       <c r="K24">
-        <v>0.5458813676330294</v>
+        <v>1.582750297497029</v>
       </c>
       <c r="L24">
-        <v>0.1636055681618274</v>
+        <v>0.2342409240682457</v>
       </c>
       <c r="M24">
-        <v>0.2476672653849761</v>
+        <v>0.2675549056556648</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.112819968212051</v>
+        <v>0.9235323286190464</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1023121427905274</v>
+        <v>0.03081790768306547</v>
       </c>
       <c r="E25">
-        <v>0.1910156680558797</v>
+        <v>0.08320982369175178</v>
       </c>
       <c r="F25">
-        <v>2.904816527094226</v>
+        <v>1.845185109112862</v>
       </c>
       <c r="G25">
-        <v>2.140820677271932</v>
+        <v>1.586774048689421</v>
       </c>
       <c r="H25">
-        <v>1.780225989753859</v>
+        <v>1.00927960450386</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3202833586094624</v>
+        <v>0.1636734754154672</v>
       </c>
       <c r="K25">
-        <v>0.4672314656159244</v>
+        <v>1.289301307912638</v>
       </c>
       <c r="L25">
-        <v>0.1538930682806381</v>
+        <v>0.1913677730904624</v>
       </c>
       <c r="M25">
-        <v>0.2380290395334228</v>
+        <v>0.2225965892065815</v>
       </c>
       <c r="N25">
         <v>0</v>
